--- a/DSA crack sheet/FINAL450.xlsx
+++ b/DSA crack sheet/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ani rani\Desktop\repo\DSA crack sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4C6702-4C55-4490-8D9E-162EB6E90DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CB8D78-674B-4D62-B03E-68BDE5DA8508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1429,6 +1429,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Coding nijas</t>
   </si>
 </sst>
 </file>
@@ -1858,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B136" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="B319" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C329" sqref="C329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4962,7 +4965,7 @@
         <v>286</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="21">
@@ -4973,7 +4976,7 @@
         <v>287</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="21">
@@ -4995,7 +4998,7 @@
         <v>289</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="21">
@@ -5017,7 +5020,7 @@
         <v>291</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="21">
@@ -5028,7 +5031,7 @@
         <v>292</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="21">
@@ -5050,10 +5053,10 @@
         <v>294</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="21">
       <c r="A305" s="5" t="s">
         <v>285</v>
       </c>
@@ -5064,7 +5067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="21">
+    <row r="306" spans="1:4" ht="21">
       <c r="A306" s="5" t="s">
         <v>285</v>
       </c>
@@ -5075,7 +5078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="21">
+    <row r="307" spans="1:4" ht="21">
       <c r="A307" s="5" t="s">
         <v>285</v>
       </c>
@@ -5086,7 +5089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="21">
+    <row r="308" spans="1:4" ht="21">
       <c r="A308" s="5" t="s">
         <v>285</v>
       </c>
@@ -5097,7 +5100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="21">
+    <row r="309" spans="1:4" ht="21">
       <c r="A309" s="5" t="s">
         <v>285</v>
       </c>
@@ -5105,10 +5108,10 @@
         <v>299</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="21">
       <c r="A310" s="5" t="s">
         <v>285</v>
       </c>
@@ -5116,10 +5119,13 @@
         <v>300</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D310" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="21">
       <c r="A311" s="5" t="s">
         <v>285</v>
       </c>
@@ -5130,7 +5136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="21">
+    <row r="312" spans="1:4" ht="21">
       <c r="A312" s="5" t="s">
         <v>285</v>
       </c>
@@ -5141,7 +5147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="21">
+    <row r="313" spans="1:4" ht="21">
       <c r="A313" s="5" t="s">
         <v>285</v>
       </c>
@@ -5152,7 +5158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="21">
+    <row r="314" spans="1:4" ht="21">
       <c r="A314" s="5" t="s">
         <v>285</v>
       </c>
@@ -5160,10 +5166,10 @@
         <v>304</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="21">
       <c r="A315" s="5" t="s">
         <v>285</v>
       </c>
@@ -5171,10 +5177,10 @@
         <v>305</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="21">
       <c r="A316" s="5" t="s">
         <v>285</v>
       </c>
@@ -5185,7 +5191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="21">
+    <row r="317" spans="1:4" ht="21">
       <c r="A317" s="5" t="s">
         <v>285</v>
       </c>
@@ -5196,7 +5202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="21">
+    <row r="318" spans="1:4" ht="21">
       <c r="A318" s="5" t="s">
         <v>285</v>
       </c>
@@ -5204,10 +5210,10 @@
         <v>308</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="21">
       <c r="A319" s="5" t="s">
         <v>285</v>
       </c>
@@ -5218,7 +5224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="21">
+    <row r="320" spans="1:4" ht="21">
       <c r="A320" s="5" t="s">
         <v>285</v>
       </c>
@@ -5281,7 +5287,7 @@
         <v>315</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="21">
@@ -5314,7 +5320,7 @@
         <v>318</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="21">
@@ -7381,5 +7387,6 @@
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>
--- a/DSA crack sheet/FINAL450.xlsx
+++ b/DSA crack sheet/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ani rani\Desktop\repo\DSA crack sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CB8D78-674B-4D62-B03E-68BDE5DA8508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E2BADB-5A9C-4D24-9CDF-AB951366D879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B319" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C329" sqref="C329"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1941,7 +1941,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1963,7 +1963,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
@@ -1974,7 +1974,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -2328,7 +2328,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
